--- a/PCB/PIN_OUT.xlsx
+++ b/PCB/PIN_OUT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hannl-my.sharepoint.com/personal/mdt_degast_student_han_nl/Documents/ESE-1 groep 1 S2 onlyplants/design bestanden/pcb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="8_{7FF524B4-1F94-4622-B879-BF30A84B1D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA931D32-F519-4A4E-9DF5-28B0A0E879BA}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="8_{7FF524B4-1F94-4622-B879-BF30A84B1D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EA4448D-6FFA-4852-8924-2B0EDE3E2C3F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{3A9D914D-7200-40A6-9655-85E1F8DA108F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3A9D914D-7200-40A6-9655-85E1F8DA108F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="119">
   <si>
     <t>OLED:</t>
   </si>
@@ -86,18 +86,6 @@
     <t>SW5_OUT</t>
   </si>
   <si>
-    <t>PTE2</t>
-  </si>
-  <si>
-    <t>PTE3</t>
-  </si>
-  <si>
-    <t>PTE4</t>
-  </si>
-  <si>
-    <t>PTE5</t>
-  </si>
-  <si>
     <t>PTE20</t>
   </si>
   <si>
@@ -194,9 +182,6 @@
     <t>PTA5</t>
   </si>
   <si>
-    <t>PTC8</t>
-  </si>
-  <si>
     <t>PTC9</t>
   </si>
   <si>
@@ -393,6 +378,21 @@
   </si>
   <si>
     <t>Connected on PCB:</t>
+  </si>
+  <si>
+    <t>PTD4</t>
+  </si>
+  <si>
+    <t>PTA1</t>
+  </si>
+  <si>
+    <t>PTA2</t>
+  </si>
+  <si>
+    <t>PTA4</t>
+  </si>
+  <si>
+    <t>PTA12</t>
   </si>
 </sst>
 </file>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA36360-8559-4A1D-BE54-42CFDE003434}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,22 +795,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -824,10 +824,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -841,10 +844,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -859,22 +865,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -885,13 +891,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -902,13 +911,16 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -919,13 +931,16 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -936,13 +951,16 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -953,18 +971,21 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -974,25 +995,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1000,50 +1021,59 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1051,21 +1081,24 @@
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1075,22 +1108,22 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1098,16 +1131,19 @@
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1115,21 +1151,24 @@
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1139,22 +1178,22 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1162,16 +1201,19 @@
         <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1179,38 +1221,44 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1220,22 +1268,22 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1243,16 +1291,19 @@
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1260,16 +1311,19 @@
         <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1277,16 +1331,19 @@
         <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1294,21 +1351,24 @@
         <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1318,22 +1378,22 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1341,16 +1401,19 @@
         <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1358,16 +1421,19 @@
         <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1375,21 +1441,24 @@
         <v>10</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1399,22 +1468,22 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1422,16 +1491,19 @@
         <v>10</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1439,16 +1511,19 @@
         <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -1456,16 +1531,19 @@
         <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -1473,16 +1551,19 @@
         <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -1490,16 +1571,19 @@
         <v>10</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -1507,16 +1591,19 @@
         <v>10</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -1524,16 +1611,19 @@
         <v>10</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -1541,16 +1631,19 @@
         <v>10</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -1558,16 +1651,19 @@
         <v>10</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -1575,21 +1671,24 @@
         <v>10</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1599,22 +1698,22 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -1622,16 +1721,19 @@
         <v>10</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -1639,16 +1741,19 @@
         <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -1656,16 +1761,19 @@
         <v>10</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -1673,19 +1781,22 @@
         <v>10</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H63" t="s">
         <v>87</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H63" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/PCB/PIN_OUT.xlsx
+++ b/PCB/PIN_OUT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hannl-my.sharepoint.com/personal/mdt_degast_student_han_nl/Documents/ESE-1 groep 1 S2 onlyplants/design bestanden/pcb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="8_{7FF524B4-1F94-4622-B879-BF30A84B1D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EA4448D-6FFA-4852-8924-2B0EDE3E2C3F}"/>
+  <xr:revisionPtr revIDLastSave="320" documentId="8_{7FF524B4-1F94-4622-B879-BF30A84B1D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{704E424C-89C6-4BA2-B54C-817C6094F150}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3A9D914D-7200-40A6-9655-85E1F8DA108F}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{3A9D914D-7200-40A6-9655-85E1F8DA108F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="124">
   <si>
     <t>OLED:</t>
   </si>
@@ -350,49 +348,64 @@
     <t>ADC0_SE9</t>
   </si>
   <si>
+    <t>TPM0_CH4</t>
+  </si>
+  <si>
+    <t>TPM0_CH5</t>
+  </si>
+  <si>
+    <t>TPM1_CH0</t>
+  </si>
+  <si>
+    <t>Schematic:</t>
+  </si>
+  <si>
+    <t>Type:</t>
+  </si>
+  <si>
+    <t>Pin:</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Connected in schematic:</t>
+  </si>
+  <si>
+    <t>Connected on PCB:</t>
+  </si>
+  <si>
+    <t>PTD4</t>
+  </si>
+  <si>
+    <t>PTA1</t>
+  </si>
+  <si>
+    <t>PTA2</t>
+  </si>
+  <si>
+    <t>PTA4</t>
+  </si>
+  <si>
+    <t>PTA12</t>
+  </si>
+  <si>
+    <t>ptc7 dood</t>
+  </si>
+  <si>
+    <t>PTC0</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>// this pin is not included in the schematic</t>
+  </si>
+  <si>
+    <t>MIST_DET</t>
+  </si>
+  <si>
     <t>ADC0_SE7b</t>
-  </si>
-  <si>
-    <t>TPM0_CH4</t>
-  </si>
-  <si>
-    <t>TPM0_CH5</t>
-  </si>
-  <si>
-    <t>TPM1_CH0</t>
-  </si>
-  <si>
-    <t>Schematic:</t>
-  </si>
-  <si>
-    <t>Type:</t>
-  </si>
-  <si>
-    <t>Pin:</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Connected in schematic:</t>
-  </si>
-  <si>
-    <t>Connected on PCB:</t>
-  </si>
-  <si>
-    <t>PTD4</t>
-  </si>
-  <si>
-    <t>PTA1</t>
-  </si>
-  <si>
-    <t>PTA2</t>
-  </si>
-  <si>
-    <t>PTA4</t>
-  </si>
-  <si>
-    <t>PTA12</t>
   </si>
 </sst>
 </file>
@@ -448,14 +461,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -471,7 +485,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -767,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA36360-8559-4A1D-BE54-42CFDE003434}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,6 +795,7 @@
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -795,22 +810,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>113</v>
+      <c r="H2" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -827,10 +845,10 @@
         <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -847,10 +865,10 @@
         <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -865,22 +883,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -891,16 +909,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -911,16 +929,16 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -931,16 +949,16 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -951,16 +969,16 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -971,16 +989,16 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -995,22 +1013,22 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="H15" t="s">
         <v>30</v>
@@ -1030,13 +1048,13 @@
         <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1050,13 +1068,13 @@
         <v>97</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1070,13 +1088,13 @@
         <v>98</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1090,13 +1108,13 @@
         <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -1106,27 +1124,27 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1140,13 +1158,13 @@
         <v>100</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,13 +1178,13 @@
         <v>18</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
@@ -1176,134 +1194,137 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1311,19 +1332,19 @@
         <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1331,19 +1352,19 @@
         <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1351,69 +1372,69 @@
         <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1421,19 +1442,19 @@
         <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1441,69 +1462,69 @@
         <v>10</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="E44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1511,19 +1532,19 @@
         <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -1531,19 +1552,19 @@
         <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -1551,19 +1572,19 @@
         <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -1571,19 +1592,19 @@
         <v>10</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -1591,19 +1612,19 @@
         <v>10</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -1611,19 +1632,19 @@
         <v>10</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -1631,19 +1652,19 @@
         <v>10</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -1651,19 +1672,19 @@
         <v>10</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -1671,69 +1692,69 @@
         <v>10</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -1741,19 +1762,19 @@
         <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -1761,19 +1782,19 @@
         <v>10</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -1781,21 +1802,41 @@
         <v>10</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="E64" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H64" t="s">
         <v>87</v>
       </c>
     </row>
